--- a/reference data.xlsx
+++ b/reference data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranha\Documents\TU Delft\3rd year\B46\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\B46\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB364659-6750-4803-B62E-962EBC6683D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C8EA3-C42C-4C1F-8089-F5B3AC1F684E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5008F018-13B4-4359-9C8A-2157D6F30E3E}"/>
+    <workbookView xWindow="3504" yWindow="1572" windowWidth="8304" windowHeight="8676" xr2:uid="{5008F018-13B4-4359-9C8A-2157D6F30E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="USE THIS ONE" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Meas real2 Thrust" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="137">
   <si>
     <t>19:17</t>
   </si>
@@ -435,6 +434,24 @@
   </si>
   <si>
     <t>AoA (deg)</t>
+  </si>
+  <si>
+    <t>Phugoid</t>
+  </si>
+  <si>
+    <t>Short Period</t>
+  </si>
+  <si>
+    <t>Aper. Roll</t>
+  </si>
+  <si>
+    <t>Dutch Roll</t>
+  </si>
+  <si>
+    <t>Dutch Roll YD</t>
+  </si>
+  <si>
+    <t>Spiral</t>
   </si>
 </sst>
 </file>
@@ -620,7 +637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -690,7 +707,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-NL"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -822,7 +839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422203760"/>
@@ -884,7 +901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422208240"/>
@@ -926,7 +943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -963,7 +980,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1870,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADA79D2-9250-4033-89FE-C50A6F7258C8}">
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,11 +2543,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="19">
-        <f>C3*0.3048</f>
+        <f t="shared" ref="D11:D16" si="2">C3*0.3048</f>
         <v>1527.048</v>
       </c>
       <c r="E11" s="19">
-        <f>D3*0.51444</f>
+        <f t="shared" ref="E11:E16" si="3">D3*0.51444</f>
         <v>128.09556000000001</v>
       </c>
       <c r="F11" s="19">
@@ -2590,7 +2607,7 @@
         <v>1.0338408674587174</v>
       </c>
       <c r="T11" s="19">
-        <f>J3/S11</f>
+        <f t="shared" ref="T11:T16" si="4">J3/S11</f>
         <v>276.29977590473453</v>
       </c>
       <c r="U11" s="19">
@@ -2618,11 +2635,11 @@
         <v>-1.9244120952654384</v>
       </c>
       <c r="AA11" s="19">
-        <f>F3/7937</f>
+        <f t="shared" ref="AA11:AB16" si="5">F3/7937</f>
         <v>0.10054176641048256</v>
       </c>
       <c r="AB11" s="19">
-        <f>G3/7937</f>
+        <f t="shared" si="5"/>
         <v>0.10243164923774727</v>
       </c>
       <c r="AC11" s="19">
@@ -2655,111 +2672,111 @@
         <v>2</v>
       </c>
       <c r="D12" s="19">
-        <f>C4*0.3048</f>
+        <f t="shared" si="2"/>
         <v>1530.096</v>
       </c>
       <c r="E12" s="19">
-        <f>D4*0.51444</f>
+        <f t="shared" si="3"/>
         <v>113.69124000000001</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" ref="F12:F16" si="2">$B$14*(1+($B$12*D12)/$B$15)^(-$B$11/($B$12*$B$13))</f>
+        <f t="shared" ref="F12:F16" si="6">$B$14*(1+($B$12*D12)/$B$15)^(-$B$11/($B$12*$B$13))</f>
         <v>84244.026188793083</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" ref="G12:G16" si="3">E12^2</f>
+        <f t="shared" ref="G12:G16" si="7">E12^2</f>
         <v>12925.698052737602</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" ref="H12:H16" si="4">(1+$B$16*$B$18*G12)</f>
+        <f t="shared" ref="H12:H16" si="8">(1+$B$16*$B$18*G12)</f>
         <v>1.0223241762568871</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" ref="I12:I16" si="5">H12^$B$20</f>
+        <f t="shared" ref="I12:I16" si="9">H12^$B$20</f>
         <v>1.0803393857734538</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12:J16" si="6">I12-1</f>
+        <f t="shared" ref="J12:J16" si="10">I12-1</f>
         <v>8.0339385773453786E-2</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" ref="K12:K16" si="7">$B$14/F12</f>
+        <f t="shared" ref="K12:K16" si="11">$B$14/F12</f>
         <v>1.2027559054802059</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" ref="L12:L16" si="8">K12*J12</f>
+        <f t="shared" ref="L12:L16" si="12">K12*J12</f>
         <v>9.6628670681673981E-2</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" ref="M12:M16" si="9">L12+1</f>
+        <f t="shared" ref="M12:M16" si="13">L12+1</f>
         <v>1.0966286706816739</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" ref="N12:N16" si="10">M12^$B$21</f>
+        <f t="shared" ref="N12:N16" si="14">M12^$B$21</f>
         <v>1.0267048152590481</v>
       </c>
       <c r="O12" s="14">
-        <f t="shared" ref="O12:O16" si="11">N12-1</f>
+        <f t="shared" ref="O12:O16" si="15">N12-1</f>
         <v>2.6704815259048109E-2</v>
       </c>
       <c r="P12" s="14">
-        <f t="shared" ref="P12:P16" si="12">O12*$B$22</f>
+        <f t="shared" ref="P12:P16" si="16">O12*$B$22</f>
         <v>0.13352407629524057</v>
       </c>
       <c r="Q12" s="19">
-        <f t="shared" ref="Q12:Q16" si="13">SQRT(P12)</f>
+        <f t="shared" ref="Q12:Q16" si="17">SQRT(P12)</f>
         <v>0.36540946388297141</v>
       </c>
       <c r="R12" s="14">
-        <f t="shared" ref="R12:R16" si="14">Q12^2*$B$23</f>
+        <f t="shared" ref="R12:R16" si="18">Q12^2*$B$23</f>
         <v>2.6704815259048109E-2</v>
       </c>
       <c r="S12" s="14">
-        <f t="shared" ref="S12:S16" si="15">R12+1</f>
+        <f t="shared" ref="S12:S16" si="19">R12+1</f>
         <v>1.0267048152590481</v>
       </c>
       <c r="T12" s="19">
-        <f>J4/S12</f>
+        <f t="shared" si="4"/>
         <v>276.27220188738687</v>
       </c>
       <c r="U12" s="19">
-        <f t="shared" ref="U12:U16" si="16">SQRT($B$17*$B$13*T12)</f>
+        <f t="shared" ref="U12:U16" si="20">SQRT($B$17*$B$13*T12)</f>
         <v>333.20490658524847</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" ref="V12:V16" si="17">U12*Q12</f>
+        <f t="shared" ref="V12:V16" si="21">U12*Q12</f>
         <v>121.75622627849121</v>
       </c>
       <c r="W12" s="19">
-        <f t="shared" ref="W12:W16" si="18">F12/($B$13*T12)</f>
+        <f t="shared" ref="W12:W16" si="22">F12/($B$13*T12)</f>
         <v>1.0622931334068972</v>
       </c>
       <c r="X12" s="19">
-        <f t="shared" ref="X12:X16" si="19">V12*SQRT(W12/$B$19)</f>
+        <f t="shared" ref="X12:X16" si="23">V12*SQRT(W12/$B$19)</f>
         <v>113.38231547795979</v>
       </c>
       <c r="Y12" s="19">
-        <f t="shared" ref="Y12:Y16" si="20">$B$15+($B$12*D12)</f>
+        <f t="shared" ref="Y12:Y16" si="24">$B$15+($B$12*D12)</f>
         <v>278.20437599999997</v>
       </c>
       <c r="Z12" s="19">
-        <f t="shared" ref="Z12:Z16" si="21">T12-Y12</f>
+        <f t="shared" ref="Z12:Z16" si="25">T12-Y12</f>
         <v>-1.9321741126130973</v>
       </c>
       <c r="AA12" s="19">
-        <f>F4/7937</f>
+        <f t="shared" si="5"/>
         <v>8.4792742849943301E-2</v>
       </c>
       <c r="AB12" s="19">
-        <f>G4/7937</f>
+        <f t="shared" si="5"/>
         <v>8.5926672546302124E-2</v>
       </c>
       <c r="AC12" s="19">
-        <f t="shared" ref="AC12:AC16" si="22">$C$35-K4</f>
+        <f t="shared" ref="AC12:AC16" si="26">$C$35-K4</f>
         <v>63766.156635000392</v>
       </c>
       <c r="AD12" s="19">
-        <f t="shared" ref="AD12:AD16" si="23">AC12/$B$11</f>
+        <f t="shared" ref="AD12:AD16" si="27">AC12/$B$11</f>
         <v>6502.3383759999997</v>
       </c>
       <c r="AE12" s="14"/>
@@ -2784,111 +2801,111 @@
         <v>3</v>
       </c>
       <c r="D13" s="19">
-        <f>C5*0.3048</f>
+        <f t="shared" si="2"/>
         <v>1530.096</v>
       </c>
       <c r="E13" s="19">
-        <f>D5*0.51444</f>
+        <f t="shared" si="3"/>
         <v>98.772480000000002</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>84244.026188793083</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9756.0028053504011</v>
       </c>
       <c r="H13" s="14">
+        <f t="shared" si="8"/>
+        <v>1.0168497457778072</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="9"/>
+        <v>1.0602267204144782</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="10"/>
+        <v>6.0226720414478185E-2</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="11"/>
+        <v>1.2027559054802059</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="12"/>
+        <v>7.2438043646218919E-2</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="13"/>
+        <v>1.0724380436462189</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0201822775939646</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="15"/>
+        <v>2.0182277593964626E-2</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="16"/>
+        <v>0.10091138796982314</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" si="17"/>
+        <v>0.31766552845693402</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="18"/>
+        <v>2.0182277593964626E-2</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0201822775939646</v>
+      </c>
+      <c r="T13" s="19">
         <f t="shared" si="4"/>
-        <v>1.0168497457778072</v>
-      </c>
-      <c r="I13" s="14">
+        <v>276.37217994509888</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" si="20"/>
+        <v>333.2651916335351</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" si="21"/>
+        <v>105.86686321656832</v>
+      </c>
+      <c r="W13" s="19">
+        <f t="shared" si="22"/>
+        <v>1.0619088472453166</v>
+      </c>
+      <c r="X13" s="19">
+        <f t="shared" si="23"/>
+        <v>98.567926460471142</v>
+      </c>
+      <c r="Y13" s="19">
+        <f t="shared" si="24"/>
+        <v>278.20437599999997</v>
+      </c>
+      <c r="Z13" s="19">
+        <f t="shared" si="25"/>
+        <v>-1.8321960549010896</v>
+      </c>
+      <c r="AA13" s="19">
         <f t="shared" si="5"/>
-        <v>1.0602267204144782</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="6"/>
-        <v>6.0226720414478185E-2</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="7"/>
-        <v>1.2027559054802059</v>
-      </c>
-      <c r="L13" s="14">
-        <f t="shared" si="8"/>
-        <v>7.2438043646218919E-2</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="9"/>
-        <v>1.0724380436462189</v>
-      </c>
-      <c r="N13" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0201822775939646</v>
-      </c>
-      <c r="O13" s="14">
-        <f t="shared" si="11"/>
-        <v>2.0182277593964626E-2</v>
-      </c>
-      <c r="P13" s="14">
-        <f t="shared" si="12"/>
-        <v>0.10091138796982314</v>
-      </c>
-      <c r="Q13" s="19">
-        <f t="shared" si="13"/>
-        <v>0.31766552845693402</v>
-      </c>
-      <c r="R13" s="14">
-        <f t="shared" si="14"/>
-        <v>2.0182277593964626E-2</v>
-      </c>
-      <c r="S13" s="14">
-        <f t="shared" si="15"/>
-        <v>1.0201822775939646</v>
-      </c>
-      <c r="T13" s="19">
-        <f>J5/S13</f>
-        <v>276.37217994509888</v>
-      </c>
-      <c r="U13" s="19">
-        <f t="shared" si="16"/>
-        <v>333.2651916335351</v>
-      </c>
-      <c r="V13" s="19">
-        <f t="shared" si="17"/>
-        <v>105.86686321656832</v>
-      </c>
-      <c r="W13" s="19">
-        <f t="shared" si="18"/>
-        <v>1.0619088472453166</v>
-      </c>
-      <c r="X13" s="19">
-        <f t="shared" si="19"/>
-        <v>98.567926460471142</v>
-      </c>
-      <c r="Y13" s="19">
-        <f t="shared" si="20"/>
-        <v>278.20437599999997</v>
-      </c>
-      <c r="Z13" s="19">
-        <f t="shared" si="21"/>
-        <v>-1.8321960549010896</v>
-      </c>
-      <c r="AA13" s="19">
-        <f>F5/7937</f>
         <v>7.0681617739700137E-2</v>
       </c>
       <c r="AB13" s="19">
-        <f>G5/7937</f>
+        <f t="shared" si="5"/>
         <v>7.2949477132417784E-2</v>
       </c>
       <c r="AC13" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>63610.469005462393</v>
       </c>
       <c r="AD13" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6486.4626559999997</v>
       </c>
       <c r="AE13" s="14"/>
@@ -2913,111 +2930,111 @@
         <v>4</v>
       </c>
       <c r="D14" s="19">
-        <f>C6*0.3048</f>
+        <f t="shared" si="2"/>
         <v>1533.144</v>
       </c>
       <c r="E14" s="19">
-        <f>D6*0.51444</f>
+        <f t="shared" si="3"/>
         <v>83.853719999999996</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>84212.498841454624</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7031.4463578383993</v>
       </c>
       <c r="H14" s="14">
+        <f t="shared" si="8"/>
+        <v>1.0121441215161284</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="9"/>
+        <v>1.0431535727160517</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="10"/>
+        <v>4.3153572716051691E-2</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="11"/>
+        <v>1.2032061914082703</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="12"/>
+        <v>5.1922645873340403E-2</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="13"/>
+        <v>1.0519226458733404</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0145678288621023</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="15"/>
+        <v>1.4567828862102283E-2</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="16"/>
+        <v>7.2839144310511431E-2</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="17"/>
+        <v>0.26988728074978158</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="18"/>
+        <v>1.456782886210228E-2</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0145678288621023</v>
+      </c>
+      <c r="T14" s="19">
         <f t="shared" si="4"/>
-        <v>1.0121441215161284</v>
-      </c>
-      <c r="I14" s="14">
+        <v>276.32455122732313</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="20"/>
+        <v>333.23647369656931</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="21"/>
+        <v>89.9362857326132</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="22"/>
+        <v>1.0616944077651327</v>
+      </c>
+      <c r="X14" s="19">
+        <f t="shared" si="23"/>
+        <v>83.727219372446015</v>
+      </c>
+      <c r="Y14" s="19">
+        <f t="shared" si="24"/>
+        <v>278.18456399999997</v>
+      </c>
+      <c r="Z14" s="19">
+        <f t="shared" si="25"/>
+        <v>-1.8600127726768392</v>
+      </c>
+      <c r="AA14" s="19">
         <f t="shared" si="5"/>
-        <v>1.0431535727160517</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="6"/>
-        <v>4.3153572716051691E-2</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="7"/>
-        <v>1.2032061914082703</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="8"/>
-        <v>5.1922645873340403E-2</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="9"/>
-        <v>1.0519226458733404</v>
-      </c>
-      <c r="N14" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0145678288621023</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" si="11"/>
-        <v>1.4567828862102283E-2</v>
-      </c>
-      <c r="P14" s="14">
-        <f t="shared" si="12"/>
-        <v>7.2839144310511431E-2</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="13"/>
-        <v>0.26988728074978158</v>
-      </c>
-      <c r="R14" s="14">
-        <f t="shared" si="14"/>
-        <v>1.456782886210228E-2</v>
-      </c>
-      <c r="S14" s="14">
-        <f t="shared" si="15"/>
-        <v>1.0145678288621023</v>
-      </c>
-      <c r="T14" s="19">
-        <f>J6/S14</f>
-        <v>276.32455122732313</v>
-      </c>
-      <c r="U14" s="19">
-        <f t="shared" si="16"/>
-        <v>333.23647369656931</v>
-      </c>
-      <c r="V14" s="19">
-        <f t="shared" si="17"/>
-        <v>89.9362857326132</v>
-      </c>
-      <c r="W14" s="19">
-        <f t="shared" si="18"/>
-        <v>1.0616944077651327</v>
-      </c>
-      <c r="X14" s="19">
-        <f t="shared" si="19"/>
-        <v>83.727219372446015</v>
-      </c>
-      <c r="Y14" s="19">
-        <f t="shared" si="20"/>
-        <v>278.18456399999997</v>
-      </c>
-      <c r="Z14" s="19">
-        <f t="shared" si="21"/>
-        <v>-1.8600127726768392</v>
-      </c>
-      <c r="AA14" s="19">
-        <f>F6/7937</f>
         <v>5.8334383268237366E-2</v>
       </c>
       <c r="AB14" s="19">
-        <f>G6/7937</f>
+        <f t="shared" si="5"/>
         <v>6.0980219226407964E-2</v>
       </c>
       <c r="AC14" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>63472.574247871591</v>
       </c>
       <c r="AD14" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6472.4013039999991</v>
       </c>
       <c r="AE14" s="14"/>
@@ -3042,111 +3059,111 @@
         <v>5</v>
       </c>
       <c r="D15" s="19">
-        <f>C7*0.3048</f>
+        <f t="shared" si="2"/>
         <v>1530.096</v>
       </c>
       <c r="E15" s="19">
-        <f>D7*0.51444</f>
+        <f t="shared" si="3"/>
         <v>66.877200000000002</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>84244.026188793083</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4472.5598798400006</v>
       </c>
       <c r="H15" s="14">
+        <f t="shared" si="8"/>
+        <v>1.0077246284625907</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="9"/>
+        <v>1.0272982646175863</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="10"/>
+        <v>2.7298264617586332E-2</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="11"/>
+        <v>1.2027559054802059</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="12"/>
+        <v>3.2833148978163314E-2</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="13"/>
+        <v>1.0328331489781633</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0092729170488064</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="15"/>
+        <v>9.272917048806395E-3</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="16"/>
+        <v>4.6364585244031982E-2</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="17"/>
+        <v>0.21532437215520212</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="18"/>
+        <v>9.272917048806395E-3</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0092729170488064</v>
+      </c>
+      <c r="T15" s="19">
         <f t="shared" si="4"/>
-        <v>1.0077246284625907</v>
-      </c>
-      <c r="I15" s="14">
+        <v>276.58524793893866</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="20"/>
+        <v>333.39363159667778</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="21"/>
+        <v>71.787774404097391</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="22"/>
+        <v>1.0610908036605291</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="23"/>
+        <v>66.812653493872673</v>
+      </c>
+      <c r="Y15" s="19">
+        <f t="shared" si="24"/>
+        <v>278.20437599999997</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="25"/>
+        <v>-1.6191280610613035</v>
+      </c>
+      <c r="AA15" s="19">
         <f t="shared" si="5"/>
-        <v>1.0272982646175863</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="6"/>
-        <v>2.7298264617586332E-2</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="7"/>
-        <v>1.2027559054802059</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="8"/>
-        <v>3.2833148978163314E-2</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="9"/>
-        <v>1.0328331489781633</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0092729170488064</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" si="11"/>
-        <v>9.272917048806395E-3</v>
-      </c>
-      <c r="P15" s="14">
-        <f t="shared" si="12"/>
-        <v>4.6364585244031982E-2</v>
-      </c>
-      <c r="Q15" s="19">
-        <f t="shared" si="13"/>
-        <v>0.21532437215520212</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" si="14"/>
-        <v>9.272917048806395E-3</v>
-      </c>
-      <c r="S15" s="14">
-        <f t="shared" si="15"/>
-        <v>1.0092729170488064</v>
-      </c>
-      <c r="T15" s="19">
-        <f>J7/S15</f>
-        <v>276.58524793893866</v>
-      </c>
-      <c r="U15" s="19">
-        <f t="shared" si="16"/>
-        <v>333.39363159667778</v>
-      </c>
-      <c r="V15" s="19">
-        <f t="shared" si="17"/>
-        <v>71.787774404097391</v>
-      </c>
-      <c r="W15" s="19">
-        <f t="shared" si="18"/>
-        <v>1.0610908036605291</v>
-      </c>
-      <c r="X15" s="19">
-        <f t="shared" si="19"/>
-        <v>66.812653493872673</v>
-      </c>
-      <c r="Y15" s="19">
-        <f t="shared" si="20"/>
-        <v>278.20437599999997</v>
-      </c>
-      <c r="Z15" s="19">
-        <f t="shared" si="21"/>
-        <v>-1.6191280610613035</v>
-      </c>
-      <c r="AA15" s="19">
-        <f>F7/7937</f>
         <v>5.5814539498551093E-2</v>
       </c>
       <c r="AB15" s="19">
-        <f>G7/7937</f>
+        <f t="shared" si="5"/>
         <v>5.8838352022174627E-2</v>
       </c>
       <c r="AC15" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>63232.370476584394</v>
       </c>
       <c r="AD15" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6447.9073360000002</v>
       </c>
       <c r="AE15" s="14"/>
@@ -3172,111 +3189,111 @@
         <v>6</v>
       </c>
       <c r="D16" s="19">
-        <f>C8*0.3048</f>
+        <f t="shared" si="2"/>
         <v>1557.528</v>
       </c>
       <c r="E16" s="19">
-        <f>D8*0.51444</f>
+        <f t="shared" si="3"/>
         <v>60.703920000000004</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>83960.623841597844</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3684.9659033664007</v>
       </c>
       <c r="H16" s="14">
+        <f t="shared" si="8"/>
+        <v>1.006364362527403</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="9"/>
+        <v>1.0224530430660477</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="10"/>
+        <v>2.2453043066047673E-2</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="11"/>
+        <v>1.2068157115073634</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="12"/>
+        <v>2.7096685143257797E-2</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="13"/>
+        <v>1.0270966851432577</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" si="14"/>
+        <v>1.0076681277376998</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="15"/>
+        <v>7.6681277376997592E-3</v>
+      </c>
+      <c r="P16" s="14">
+        <f t="shared" si="16"/>
+        <v>3.8340638688498803E-2</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="17"/>
+        <v>0.1958076573796306</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="18"/>
+        <v>7.6681277376997592E-3</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0076681277376998</v>
+      </c>
+      <c r="T16" s="19">
         <f t="shared" si="4"/>
-        <v>1.006364362527403</v>
-      </c>
-      <c r="I16" s="14">
+        <v>276.2318191257267</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="20"/>
+        <v>333.18055338218016</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="21"/>
+        <v>65.239303642213656</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" si="22"/>
+        <v>1.0588742865313128</v>
+      </c>
+      <c r="X16" s="19">
+        <f t="shared" si="23"/>
+        <v>60.654562355985924</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" si="24"/>
+        <v>278.02606799999995</v>
+      </c>
+      <c r="Z16" s="19">
+        <f t="shared" si="25"/>
+        <v>-1.7942488742732507</v>
+      </c>
+      <c r="AA16" s="19">
         <f t="shared" si="5"/>
-        <v>1.0224530430660477</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="6"/>
-        <v>2.2453043066047673E-2</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="7"/>
-        <v>1.2068157115073634</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="8"/>
-        <v>2.7096685143257797E-2</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="9"/>
-        <v>1.0270966851432577</v>
-      </c>
-      <c r="N16" s="14">
-        <f t="shared" si="10"/>
-        <v>1.0076681277376998</v>
-      </c>
-      <c r="O16" s="14">
-        <f t="shared" si="11"/>
-        <v>7.6681277376997592E-3</v>
-      </c>
-      <c r="P16" s="14">
-        <f t="shared" si="12"/>
-        <v>3.8340638688498803E-2</v>
-      </c>
-      <c r="Q16" s="19">
-        <f t="shared" si="13"/>
-        <v>0.1958076573796306</v>
-      </c>
-      <c r="R16" s="14">
-        <f t="shared" si="14"/>
-        <v>7.6681277376997592E-3</v>
-      </c>
-      <c r="S16" s="14">
-        <f t="shared" si="15"/>
-        <v>1.0076681277376998</v>
-      </c>
-      <c r="T16" s="19">
-        <f>J8/S16</f>
-        <v>276.2318191257267</v>
-      </c>
-      <c r="U16" s="19">
-        <f t="shared" si="16"/>
-        <v>333.18055338218016</v>
-      </c>
-      <c r="V16" s="19">
-        <f t="shared" si="17"/>
-        <v>65.239303642213656</v>
-      </c>
-      <c r="W16" s="19">
-        <f t="shared" si="18"/>
-        <v>1.0588742865313128</v>
-      </c>
-      <c r="X16" s="19">
-        <f t="shared" si="19"/>
-        <v>60.654562355985924</v>
-      </c>
-      <c r="Y16" s="19">
-        <f t="shared" si="20"/>
-        <v>278.02606799999995</v>
-      </c>
-      <c r="Z16" s="19">
-        <f t="shared" si="21"/>
-        <v>-1.7942488742732507</v>
-      </c>
-      <c r="AA16" s="19">
-        <f>F8/7937</f>
         <v>5.9720297341564824E-2</v>
       </c>
       <c r="AB16" s="19">
-        <f>G8/7937</f>
+        <f t="shared" si="5"/>
         <v>6.2870102053672675E-2</v>
       </c>
       <c r="AC16" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>63063.33819308599</v>
       </c>
       <c r="AD16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6430.6708399999998</v>
       </c>
       <c r="AE16" s="14"/>
@@ -3316,7 +3333,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="19"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
@@ -3580,8 +3597,13 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="14">
+        <f>53*60 + 57 - 9</f>
+        <v>3228</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -3630,8 +3652,13 @@
         <v>40767.917849022</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24">
+        <f>59*60 + 10 -9</f>
+        <v>3541</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -3679,8 +3706,13 @@
         <v>931.6317499999999</v>
       </c>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="14">
+        <f>1*3600 + 35 - 9</f>
+        <v>3626</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -3724,12 +3756,17 @@
         <v>92</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" ref="C26:C33" si="24">B26*$B$11</f>
+        <f t="shared" ref="C26:C33" si="28">B26*$B$11</f>
         <v>902.21179999999993</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="14">
+        <f>3600+60+57-9</f>
+        <v>3708</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -3773,8 +3810,15 @@
         <v>74</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>725.69209999999998</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="14">
+        <f>3600+120+47-9</f>
+        <v>3758</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
@@ -3785,8 +3829,15 @@
         <v>66</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>647.23889999999994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28">
+        <f>3600+5*60+20-9</f>
+        <v>3911</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -3797,7 +3848,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>598.20564999999999</v>
       </c>
     </row>
@@ -3809,7 +3860,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>735.49874999999997</v>
       </c>
     </row>
@@ -3821,7 +3872,7 @@
         <v>78</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>764.91869999999994</v>
       </c>
     </row>
@@ -3833,7 +3884,7 @@
         <v>86</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>843.37189999999998</v>
       </c>
     </row>
@@ -3845,7 +3896,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>666.85219999999993</v>
       </c>
     </row>
@@ -4374,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F564F87-31AD-4F4B-85F2-35F332D6BD9A}">
   <dimension ref="A2:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AN26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7322,7 +7373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0319A5D-4EE0-4E53-874D-9A93FB4196C1}">
   <dimension ref="A2:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11:AA16"/>
     </sheetView>
   </sheetViews>
